--- a/data/trans_dic/P25A_1_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_1_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por diabetes/azúcar alta en sangre/azúcar en orina</t>
+          <t>Población con limitación por diabetes/azúcar alta en sangre/azúcar en orina (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,7 +710,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -691,7 +740,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +750,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -710,6 +759,36 @@
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
@@ -724,37 +803,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>0,0; 3,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,22 +843,52 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,5</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,66</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -816,42 +925,72 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>20,7%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,28%</t>
-        </is>
-      </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>12,17%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,95</t>
+          <t>0,0; 5,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,36</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,0; 2,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 98,69</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,21</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,0; 4,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,27</t>
+          <t>0,0; 2,89</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,43</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,02</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,12</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 3,47</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,12</t>
         </is>
       </c>
     </row>
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,15%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>0,0; 3,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,13</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,58</t>
+          <t>0,0; 1,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,22; 1,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,77</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,87</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 1,02</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,73</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,23</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,3</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>1,48%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>13,39%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>0,88%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>13,94%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,11</t>
+          <t>0,31; 3,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,99</t>
+          <t>0,39; 3,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,39</t>
+          <t>0,27; 2,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,77</t>
+          <t>0,43; 3,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,45; 4,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,93</t>
+          <t>1,09; 5,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,39</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,25</t>
+          <t>0,43; 2,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,65</t>
+          <t>0,25; 2,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,61</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,8</t>
+          <t>0,0; 2,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 33,22</t>
+          <t>0,61; 5,06</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 2,08</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 2,56</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 1,77</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 2,44</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 2,95</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 4,17</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1505,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1231,47 +1520,77 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,25</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,26</t>
+          <t>0,21; 2,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 23,26</t>
+          <t>0,59; 5,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,87</t>
+          <t>1,19; 6,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,99</t>
+          <t>2,99; 9,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,51</t>
+          <t>0,0; 3,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,39; 39,84</t>
+          <t>0,54; 5,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,64</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,54</t>
+          <t>1,1; 5,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,28</t>
+          <t>1,47; 6,99</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,5; 23,78</t>
+          <t>0,92; 7,22</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 2,26</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 3,26</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 1,45</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 4,74</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1,8; 5,5</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>2,4; 6,88</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,55; 15,31</t>
+          <t>1,46; 15,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,97</t>
+          <t>0,5; 5,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,39</t>
+          <t>1,25; 7,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 18,52</t>
+          <t>0,65; 6,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 9,79</t>
+          <t>6,42; 17,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,44</t>
+          <t>0,62; 8,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,04</t>
+          <t>2,12; 7,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 26,83</t>
+          <t>0,58; 3,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,85; 9,82</t>
+          <t>1,49; 6,29</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,09</t>
+          <t>0,53; 7,21</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 5,29</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,35; 17,93</t>
+          <t>2,3; 10,4</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 8,37</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 3,44</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 5,25</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 5,55</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 8,08</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 7,41</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
           <t>1,17%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>0,83%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>8,29%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,34%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>1,06%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>13,39%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>1,26%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,95%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>10,53%</t>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,95</t>
+          <t>0,52; 2,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,38</t>
+          <t>0,5; 1,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,3</t>
+          <t>0,37; 1,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 15,25</t>
+          <t>0,46; 1,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,26</t>
+          <t>1,9; 4,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,73</t>
+          <t>1,19; 2,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,52</t>
+          <t>0,68; 1,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,09; 23,84</t>
+          <t>0,63; 1,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,01</t>
+          <t>0,5; 1,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,36</t>
+          <t>0,63; 2,31</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,24</t>
+          <t>0,59; 1,8</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,24; 15,75</t>
+          <t>1,15; 3,14</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 1,87</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 1,39</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 1,2</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 1,68</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 2,57</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 2,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por diabetes/azúcar alta en sangre/azúcar en orina (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3022</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3022</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17884</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15555</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3366</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3230</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2230</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2682</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3230</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2230</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>6049</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2525</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18257</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14456</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12474</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1197</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2090</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14581</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15611</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10949</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1086</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>291; 3286</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22987</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2754</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2406</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5023</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3332</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2406</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5023</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>3332</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2754</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2089</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14937</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13377</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1547; 13290</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10225</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12236</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1567; 14319</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10149</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1421</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18152</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7938</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9065</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1035</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>17516</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2158</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5531</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13540</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>10096</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>18124</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>11366</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1484</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>31056</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2017; 22992</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2495; 23021</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1733; 15849</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>249; 2208</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>255; 2614</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7119; 35658</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10819</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2879; 19863</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1623; 15379</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1091</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1548</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4056; 33487</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2671; 27709</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>8916; 33624</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3907; 23034</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>284; 2672</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>711; 3249</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>16450; 54780</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5624</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3217</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1502</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>26930</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4981</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10595</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1728</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1483</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1585</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13653</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>9074</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>16220</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>4945</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2324</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>3087</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>40583</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14537</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1078; 14873</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11690</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>258; 2274</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>530; 3087</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14785; 45973</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 17763</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2682; 29124</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8666</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>539; 2894</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>684; 3244</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4737; 37330</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2280; 22537</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>6881; 32705</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1564; 14642</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1178; 4392</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>1640; 5003</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>24239; 69598</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>26417</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10957</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>17229</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5064</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>14778</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>30034</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11497</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22012</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1610</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>38833</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>56452</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>22455</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>39241</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>2733</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>5649</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>53611</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7964; 82943</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2670; 27657</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6629; 39673</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>302; 3044</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2943; 7923</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3499; 45751</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>15158; 52912</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4000; 24878</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10310; 43579</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>336; 4593</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1965</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>16923; 76371</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>30584; 105461</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>10524; 42059</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>22558; 64279</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1100; 6118</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>3371; 8852</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>28770; 96361</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>38448</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>28668</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>26280</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2811</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>8408</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>65345</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>42809</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>38405</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>32603</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3557</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3224</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>68708</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>81257</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>67074</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>58884</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>6368</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>11632</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>134053</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>18085; 90850</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>17099; 51951</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>12903; 49213</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1383; 5047</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5727; 12373</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>40867; 99916</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>24381; 68552</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>22776; 60871</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>18201; 54849</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1906; 6998</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1778; 5438</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>41638; 113297</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>51223; 131549</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>46955; 97699</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>38451; 84941</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>3962; 10102</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>8270; 15516</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>96536; 185609</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
